--- a/data/human/adult/validation/Scenarios/AirwayObstruction.xlsx
+++ b/data/human/adult/validation/Scenarios/AirwayObstruction.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\Pulse\engine\data\human\adult\validation\Scenarios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Source\Pulse\documentation\source\data\human\adult\validation\Scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EA4143-7D91-4AA0-B920-1C11E1420B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE0DDCE-0B2C-4E0A-AD7C-A47AC50C8D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="0" windowWidth="25440" windowHeight="17280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6630" yWindow="5190" windowWidth="24210" windowHeight="22365" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Varied" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="48">
   <si>
     <t>Scenario Name</t>
   </si>
@@ -184,6 +184,9 @@
       "AirwayObstruction": { "Severity": { "Scalar0To1": {}}}}},
   { "AdvanceTime": {
       "Time": { "ScalarTime": { "Value": 500.0, "Unit": "s" }}}}</t>
+  </si>
+  <si>
+    <t>equalToValue</t>
   </si>
 </sst>
 </file>
@@ -670,170 +673,170 @@
   </cellStyleXfs>
   <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1220,7 +1223,7 @@
   <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:F9"/>
+      <selection activeCell="B41" sqref="B41:F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1235,1036 +1238,1047 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="6" t="s">
+      <c r="A1" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="53"/>
+      <c r="C1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6" t="s">
+      <c r="D1" s="54"/>
+      <c r="E1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
     </row>
     <row r="2" spans="1:7" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="55"/>
+      <c r="E2" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="9" t="s">
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="10">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="11" t="s">
+      <c r="A4" s="3">
+        <v>0</v>
+      </c>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="8" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="21" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="25" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="18" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="26" t="s">
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="19" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="27">
+      <c r="A9" s="20">
         <v>1</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="11" t="s">
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="26" t="s">
+      <c r="G10" s="19" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="33" t="s">
+      <c r="A11" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="33">
-        <v>0</v>
-      </c>
-      <c r="F11" s="34" t="s">
+      <c r="E11" s="26">
+        <v>0</v>
+      </c>
+      <c r="F11" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="35"/>
+      <c r="G11" s="28"/>
     </row>
     <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="37" t="s">
+      <c r="A12" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="37">
-        <v>0</v>
-      </c>
-      <c r="F12" s="38" t="s">
+      <c r="E12" s="30">
+        <v>0</v>
+      </c>
+      <c r="F12" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="39"/>
+      <c r="G12" s="32"/>
     </row>
     <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="37" t="s">
+      <c r="A13" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="37">
-        <v>0</v>
-      </c>
-      <c r="F13" s="38" t="s">
+      <c r="E13" s="30">
+        <v>0</v>
+      </c>
+      <c r="F13" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="40" t="s">
+      <c r="G13" s="33" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="37" t="s">
+      <c r="A14" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="37">
-        <v>0</v>
-      </c>
-      <c r="F14" s="38" t="s">
+      <c r="E14" s="30">
+        <v>0</v>
+      </c>
+      <c r="F14" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="40" t="s">
+      <c r="G14" s="33" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="37" t="s">
+      <c r="A15" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="37">
-        <v>0</v>
-      </c>
-      <c r="F15" s="38" t="s">
+      <c r="E15" s="30">
+        <v>0</v>
+      </c>
+      <c r="F15" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="39"/>
+      <c r="G15" s="32"/>
     </row>
     <row r="16" spans="1:7" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="26" t="s">
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="19" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="41">
+      <c r="A17" s="34">
         <v>2</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="42" t="s">
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="35" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="43" t="s">
+      <c r="E18" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="31" t="s">
+      <c r="F18" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="26" t="s">
+      <c r="G18" s="19" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="33" t="s">
+      <c r="A19" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="33" t="s">
+      <c r="D19" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="33">
-        <v>0</v>
-      </c>
-      <c r="F19" s="44"/>
-      <c r="G19" s="35"/>
+      <c r="E19" s="26">
+        <v>0</v>
+      </c>
+      <c r="F19" s="37"/>
+      <c r="G19" s="28"/>
     </row>
     <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="37" t="s">
+      <c r="A20" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="37" t="s">
+      <c r="D20" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="45">
-        <v>0</v>
-      </c>
-      <c r="F20" s="46"/>
-      <c r="G20" s="39"/>
+      <c r="E20" s="38">
+        <v>0</v>
+      </c>
+      <c r="F20" s="39"/>
+      <c r="G20" s="32"/>
     </row>
     <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="37" t="s">
+      <c r="A21" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="37" t="s">
+      <c r="D21" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="45">
-        <v>0</v>
-      </c>
-      <c r="F21" s="46"/>
-      <c r="G21" s="39"/>
+      <c r="E21" s="38">
+        <v>0</v>
+      </c>
+      <c r="F21" s="39"/>
+      <c r="G21" s="32"/>
     </row>
     <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="37" t="s">
+      <c r="A22" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="45">
-        <v>0</v>
-      </c>
-      <c r="F22" s="46"/>
-      <c r="G22" s="39"/>
+      <c r="E22" s="38">
+        <v>0</v>
+      </c>
+      <c r="F22" s="39"/>
+      <c r="G22" s="32"/>
     </row>
     <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="37" t="s">
+      <c r="A23" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="37" t="s">
+      <c r="D23" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="45">
-        <v>0</v>
-      </c>
-      <c r="F23" s="46"/>
-      <c r="G23" s="39"/>
+      <c r="E23" s="38">
+        <v>0</v>
+      </c>
+      <c r="F23" s="39"/>
+      <c r="G23" s="32"/>
     </row>
     <row r="24" spans="1:7" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="26" t="s">
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="19" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="55.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="41">
+      <c r="A25" s="34">
         <v>3</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="42" t="s">
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="35" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="30" t="s">
+      <c r="D26" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="30" t="s">
+      <c r="E26" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="31" t="s">
+      <c r="F26" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="G26" s="26" t="s">
+      <c r="G26" s="19" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="33" t="s">
+      <c r="A27" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="33" t="s">
+      <c r="C27" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="33" t="s">
+      <c r="D27" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="47">
+      <c r="E27" s="40">
         <v>1</v>
       </c>
-      <c r="F27" s="34" t="s">
+      <c r="F27" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="G27" s="35"/>
+      <c r="G27" s="28"/>
     </row>
     <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="37" t="s">
+      <c r="A28" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="37" t="s">
+      <c r="C28" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="37" t="s">
+      <c r="D28" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="E28" s="47">
-        <v>0</v>
-      </c>
-      <c r="F28" s="38" t="s">
+      <c r="E28" s="40">
+        <v>0</v>
+      </c>
+      <c r="F28" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="G28" s="39"/>
+      <c r="G28" s="32"/>
     </row>
     <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="37" t="s">
+      <c r="A29" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="37" t="s">
+      <c r="C29" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="37" t="s">
+      <c r="D29" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="47">
-        <v>0</v>
-      </c>
-      <c r="F29" s="38" t="s">
+      <c r="E29" s="40">
+        <v>0</v>
+      </c>
+      <c r="F29" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="G29" s="40" t="s">
+      <c r="G29" s="33" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" s="37" t="s">
+      <c r="A30" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="37" t="s">
+      <c r="C30" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="37" t="s">
+      <c r="D30" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="47">
-        <v>0</v>
-      </c>
-      <c r="F30" s="38" t="s">
+      <c r="E30" s="40">
+        <v>0</v>
+      </c>
+      <c r="F30" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="G30" s="40" t="s">
+      <c r="G30" s="33" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="37" t="s">
+      <c r="A31" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="37" t="s">
+      <c r="C31" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="37" t="s">
+      <c r="D31" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="E31" s="47">
+      <c r="E31" s="40">
         <v>1</v>
       </c>
-      <c r="F31" s="38" t="s">
+      <c r="F31" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="G31" s="39"/>
+      <c r="G31" s="32"/>
     </row>
     <row r="32" spans="1:7" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="26" t="s">
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="19" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="41">
+      <c r="A33" s="34">
         <v>4</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="42" t="s">
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="35" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="28" t="s">
+      <c r="B34" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="29" t="s">
+      <c r="C34" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="30" t="s">
+      <c r="D34" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E34" s="30" t="s">
+      <c r="E34" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="F34" s="31" t="s">
+      <c r="F34" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="G34" s="26" t="s">
+      <c r="G34" s="19" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" s="33" t="s">
+      <c r="A35" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="33" t="s">
+      <c r="D35" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="E35" s="33">
-        <v>0</v>
-      </c>
-      <c r="F35" s="44"/>
-      <c r="G35" s="35"/>
+      <c r="E35" s="26">
+        <v>0</v>
+      </c>
+      <c r="F35" s="37"/>
+      <c r="G35" s="28"/>
     </row>
     <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36" s="37" t="s">
+      <c r="A36" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C36" s="37" t="s">
+      <c r="C36" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D36" s="33" t="s">
+      <c r="D36" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="E36" s="45">
-        <v>0</v>
-      </c>
-      <c r="F36" s="46"/>
-      <c r="G36" s="39"/>
+      <c r="E36" s="38">
+        <v>0</v>
+      </c>
+      <c r="F36" s="39"/>
+      <c r="G36" s="32"/>
     </row>
     <row r="37" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" s="37" t="s">
+      <c r="A37" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="37" t="s">
+      <c r="C37" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D37" s="33" t="s">
+      <c r="D37" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="E37" s="45">
-        <v>0</v>
-      </c>
-      <c r="F37" s="46"/>
-      <c r="G37" s="39"/>
+      <c r="E37" s="38">
+        <v>0</v>
+      </c>
+      <c r="F37" s="39"/>
+      <c r="G37" s="32"/>
     </row>
     <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="B38" s="37" t="s">
+      <c r="A38" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="37" t="s">
+      <c r="C38" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="33" t="s">
+      <c r="D38" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="E38" s="45">
-        <v>0</v>
-      </c>
-      <c r="F38" s="46"/>
-      <c r="G38" s="39"/>
+      <c r="E38" s="38">
+        <v>0</v>
+      </c>
+      <c r="F38" s="39"/>
+      <c r="G38" s="32"/>
     </row>
     <row r="39" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="B39" s="37" t="s">
+      <c r="A39" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="37" t="s">
+      <c r="C39" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="33" t="s">
+      <c r="D39" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="E39" s="45">
-        <v>0</v>
-      </c>
-      <c r="F39" s="46"/>
-      <c r="G39" s="39"/>
+      <c r="E39" s="38">
+        <v>0</v>
+      </c>
+      <c r="F39" s="39"/>
+      <c r="G39" s="32"/>
     </row>
     <row r="40" spans="1:7" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="26" t="s">
+      <c r="A40" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="26" t="s">
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="19" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="68.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="41">
+      <c r="A41" s="34">
         <v>5</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="42" t="s">
+      <c r="C41" s="50"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="35" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="28" t="s">
+      <c r="B42" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C42" s="29" t="s">
+      <c r="C42" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="30" t="s">
+      <c r="D42" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E42" s="30" t="s">
+      <c r="E42" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="F42" s="31" t="s">
+      <c r="F42" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="G42" s="26" t="s">
+      <c r="G42" s="19" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="B43" s="33" t="s">
+      <c r="A43" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C43" s="33" t="s">
+      <c r="C43" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D43" s="33" t="s">
+      <c r="D43" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E43" s="40">
+        <v>0</v>
+      </c>
+      <c r="F43" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="G43" s="28"/>
+    </row>
+    <row r="44" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="E43" s="47">
+      <c r="E44" s="40">
+        <v>0</v>
+      </c>
+      <c r="F44" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="G44" s="32"/>
+    </row>
+    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D45" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45" s="40">
+        <v>0</v>
+      </c>
+      <c r="F45" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G45" s="33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D46" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" s="40">
+        <v>0</v>
+      </c>
+      <c r="F46" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G46" s="33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A47" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D47" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="E47" s="40">
         <v>3</v>
       </c>
-      <c r="F43" s="34" t="s">
+      <c r="F47" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="G43" s="35"/>
-    </row>
-    <row r="44" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="B44" s="37" t="s">
+      <c r="G47" s="32"/>
+    </row>
+    <row r="48" spans="1:7" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="49"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="34">
+        <v>6</v>
+      </c>
+      <c r="B49" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" s="50"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E50" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F50" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="G50" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="E51" s="26">
+        <v>0</v>
+      </c>
+      <c r="F51" s="37"/>
+      <c r="G51" s="28"/>
+    </row>
+    <row r="52" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A52" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C44" s="37" t="s">
+      <c r="C52" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D44" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="E44" s="47">
-        <v>0</v>
-      </c>
-      <c r="F44" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="G44" s="39"/>
-    </row>
-    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="B45" s="37" t="s">
+      <c r="D52" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="E52" s="38">
+        <v>0</v>
+      </c>
+      <c r="F52" s="39"/>
+      <c r="G52" s="32"/>
+    </row>
+    <row r="53" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C45" s="37" t="s">
+      <c r="C53" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D45" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="E45" s="47">
-        <v>0</v>
-      </c>
-      <c r="F45" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="G45" s="40" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="B46" s="37" t="s">
+      <c r="D53" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="E53" s="38">
+        <v>0</v>
+      </c>
+      <c r="F53" s="39"/>
+      <c r="G53" s="32"/>
+    </row>
+    <row r="54" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C46" s="37" t="s">
+      <c r="C54" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D46" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="E46" s="47">
-        <v>0</v>
-      </c>
-      <c r="F46" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="G46" s="40" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A47" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="B47" s="37" t="s">
+      <c r="D54" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="E54" s="38">
+        <v>0</v>
+      </c>
+      <c r="F54" s="39"/>
+      <c r="G54" s="32"/>
+    </row>
+    <row r="55" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A55" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B55" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="C47" s="37" t="s">
+      <c r="C55" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="D47" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="E47" s="47">
-        <v>3</v>
-      </c>
-      <c r="F47" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="G47" s="39"/>
-    </row>
-    <row r="48" spans="1:7" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="41">
-        <v>6</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="42" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B50" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C50" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="E50" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="F50" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G50" s="26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A51" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="B51" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="C51" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D51" s="48" t="s">
+      <c r="D55" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="E51" s="33">
-        <v>0</v>
-      </c>
-      <c r="F51" s="44"/>
-      <c r="G51" s="35"/>
-    </row>
-    <row r="52" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="B52" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="C52" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="D52" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="E52" s="45">
-        <v>0</v>
-      </c>
-      <c r="F52" s="46"/>
-      <c r="G52" s="39"/>
-    </row>
-    <row r="53" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A53" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="B53" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="C53" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="D53" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="E53" s="45">
-        <v>0</v>
-      </c>
-      <c r="F53" s="46"/>
-      <c r="G53" s="39"/>
-    </row>
-    <row r="54" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A54" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="B54" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="C54" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="D54" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="E54" s="45">
-        <v>0</v>
-      </c>
-      <c r="F54" s="46"/>
-      <c r="G54" s="39"/>
-    </row>
-    <row r="55" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A55" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="B55" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="C55" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="D55" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="E55" s="53">
-        <v>0</v>
-      </c>
-      <c r="F55" s="54"/>
-      <c r="G55" s="55"/>
+      <c r="E55" s="46">
+        <v>0</v>
+      </c>
+      <c r="F55" s="47"/>
+      <c r="G55" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B16:F16"/>
     <mergeCell ref="B40:F40"/>
     <mergeCell ref="B41:F41"/>
     <mergeCell ref="B48:F48"/>
@@ -2274,17 +2288,6 @@
     <mergeCell ref="B25:F25"/>
     <mergeCell ref="B32:F32"/>
     <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
